--- a/sourceData/average_persentase penduduk_miskin.xlsx
+++ b/sourceData/average_persentase penduduk_miskin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hendry\Documents\binus\gemastik\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hendry\Documents\GitHub\gemastik_time_series\sourceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2785B904-6911-446B-BA15-768A813447B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFF606C-34A3-4258-916C-E8B87269282A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="2" r:id="rId1"/>
@@ -60,12 +60,6 @@
   </si>
   <si>
     <t>LAMPUNG</t>
-  </si>
-  <si>
-    <t>KEP. BANGKA BELITUNG</t>
-  </si>
-  <si>
-    <t>KEP. RIAU</t>
   </si>
   <si>
     <t>DKI JAKARTA</t>
@@ -145,11 +139,17 @@
   <si>
     <t>Semester 2 (September)</t>
   </si>
+  <si>
+    <t>KEPULAUAN BANGKA BELITUNG</t>
+  </si>
+  <si>
+    <t>KEPULAUAN RIAU</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1028,14 +1028,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Y35"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
@@ -1064,78 +1064,78 @@
     <col min="25" max="25" width="8.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1">
         <v>2022</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1">
         <v>2021</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1">
         <v>2020</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M1" s="1">
         <v>2019</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1">
         <v>2018</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S1" s="1">
         <v>2017</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="V1" s="1">
         <v>2016</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y1" s="1">
         <v>2015</v>
@@ -1162,7 +1162,7 @@
         <v>15.53</v>
       </c>
       <c r="G2" s="4">
-        <f>AVERAGE(E2,F2)</f>
+        <f t="shared" ref="G2:G35" si="0">AVERAGE(E2,F2)</f>
         <v>15.43</v>
       </c>
       <c r="H2" s="4">
@@ -1172,7 +1172,7 @@
         <v>15.43</v>
       </c>
       <c r="J2" s="4">
-        <f>AVERAGE(H2,I2)</f>
+        <f t="shared" ref="J2:J35" si="1">AVERAGE(H2,I2)</f>
         <v>15.21</v>
       </c>
       <c r="K2" s="4">
@@ -1182,7 +1182,7 @@
         <v>15.01</v>
       </c>
       <c r="M2" s="4">
-        <f>AVERAGE(K2,L2)</f>
+        <f t="shared" ref="M2:M35" si="2">AVERAGE(K2,L2)</f>
         <v>15.164999999999999</v>
       </c>
       <c r="N2" s="4">
@@ -1192,7 +1192,7 @@
         <v>15.68</v>
       </c>
       <c r="P2" s="4">
-        <f>AVERAGE(N2,O2)</f>
+        <f t="shared" ref="P2:P35" si="3">AVERAGE(N2,O2)</f>
         <v>15.824999999999999</v>
       </c>
       <c r="Q2" s="4">
@@ -1202,7 +1202,7 @@
         <v>15.92</v>
       </c>
       <c r="S2" s="4">
-        <f>AVERAGE(Q2,R2)</f>
+        <f t="shared" ref="S2:S35" si="4">AVERAGE(Q2,R2)</f>
         <v>16.405000000000001</v>
       </c>
       <c r="T2" s="4">
@@ -1212,7 +1212,7 @@
         <v>16.43</v>
       </c>
       <c r="V2" s="4">
-        <f>AVERAGE(T2,U2)</f>
+        <f t="shared" ref="V2:V35" si="5">AVERAGE(T2,U2)</f>
         <v>16.579999999999998</v>
       </c>
       <c r="W2" s="4">
@@ -1222,7 +1222,7 @@
         <v>17.11</v>
       </c>
       <c r="Y2" s="4">
-        <f>AVERAGE(W2,X2)</f>
+        <f t="shared" ref="Y2:Y35" si="6">AVERAGE(W2,X2)</f>
         <v>17.094999999999999</v>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
         <v>8.33</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D35" si="0">AVERAGE(B3,C3)</f>
+        <f t="shared" ref="D3:D35" si="7">AVERAGE(B3,C3)</f>
         <v>8.375</v>
       </c>
       <c r="E3" s="5">
@@ -1247,7 +1247,7 @@
         <v>8.49</v>
       </c>
       <c r="G3" s="4">
-        <f>AVERAGE(E3,F3)</f>
+        <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
       <c r="H3" s="5">
@@ -1257,7 +1257,7 @@
         <v>9.14</v>
       </c>
       <c r="J3" s="4">
-        <f>AVERAGE(H3,I3)</f>
+        <f t="shared" si="1"/>
         <v>8.9450000000000003</v>
       </c>
       <c r="K3" s="5">
@@ -1267,7 +1267,7 @@
         <v>8.6300000000000008</v>
       </c>
       <c r="M3" s="4">
-        <f>AVERAGE(K3,L3)</f>
+        <f t="shared" si="2"/>
         <v>8.73</v>
       </c>
       <c r="N3" s="5">
@@ -1277,7 +1277,7 @@
         <v>8.94</v>
       </c>
       <c r="P3" s="4">
-        <f>AVERAGE(N3,O3)</f>
+        <f t="shared" si="3"/>
         <v>9.08</v>
       </c>
       <c r="Q3" s="5">
@@ -1287,7 +1287,7 @@
         <v>9.2799999999999994</v>
       </c>
       <c r="S3" s="4">
-        <f>AVERAGE(Q3,R3)</f>
+        <f t="shared" si="4"/>
         <v>9.75</v>
       </c>
       <c r="T3" s="5">
@@ -1297,7 +1297,7 @@
         <v>10.27</v>
       </c>
       <c r="V3" s="4">
-        <f>AVERAGE(T3,U3)</f>
+        <f t="shared" si="5"/>
         <v>10.309999999999999</v>
       </c>
       <c r="W3" s="5">
@@ -1307,7 +1307,7 @@
         <v>10.79</v>
       </c>
       <c r="Y3" s="4">
-        <f>AVERAGE(W3,X3)</f>
+        <f t="shared" si="6"/>
         <v>10.66</v>
       </c>
     </row>
@@ -1322,7 +1322,7 @@
         <v>6.04</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>5.98</v>
       </c>
       <c r="E4" s="4">
@@ -1332,7 +1332,7 @@
         <v>6.04</v>
       </c>
       <c r="G4" s="4">
-        <f>AVERAGE(E4,F4)</f>
+        <f t="shared" si="0"/>
         <v>6.335</v>
       </c>
       <c r="H4" s="4">
@@ -1342,7 +1342,7 @@
         <v>6.56</v>
       </c>
       <c r="J4" s="4">
-        <f>AVERAGE(H4,I4)</f>
+        <f t="shared" si="1"/>
         <v>6.42</v>
       </c>
       <c r="K4" s="4">
@@ -1352,7 +1352,7 @@
         <v>6.29</v>
       </c>
       <c r="M4" s="4">
-        <f>AVERAGE(K4,L4)</f>
+        <f t="shared" si="2"/>
         <v>6.3550000000000004</v>
       </c>
       <c r="N4" s="4">
@@ -1362,7 +1362,7 @@
         <v>6.55</v>
       </c>
       <c r="P4" s="4">
-        <f>AVERAGE(N4,O4)</f>
+        <f t="shared" si="3"/>
         <v>6.6</v>
       </c>
       <c r="Q4" s="4">
@@ -1372,7 +1372,7 @@
         <v>6.75</v>
       </c>
       <c r="S4" s="4">
-        <f>AVERAGE(Q4,R4)</f>
+        <f t="shared" si="4"/>
         <v>6.8100000000000005</v>
       </c>
       <c r="T4" s="4">
@@ -1382,7 +1382,7 @@
         <v>7.14</v>
       </c>
       <c r="V4" s="4">
-        <f>AVERAGE(T4,U4)</f>
+        <f t="shared" si="5"/>
         <v>7.1150000000000002</v>
       </c>
       <c r="W4" s="4">
@@ -1392,7 +1392,7 @@
         <v>6.71</v>
       </c>
       <c r="Y4" s="4">
-        <f>AVERAGE(W4,X4)</f>
+        <f t="shared" si="6"/>
         <v>7.01</v>
       </c>
     </row>
@@ -1407,7 +1407,7 @@
         <v>6.84</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>6.8100000000000005</v>
       </c>
       <c r="E5" s="5">
@@ -1417,7 +1417,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="4">
-        <f>AVERAGE(E5,F5)</f>
+        <f t="shared" si="0"/>
         <v>7.0600000000000005</v>
       </c>
       <c r="H5" s="5">
@@ -1427,7 +1427,7 @@
         <v>7.04</v>
       </c>
       <c r="J5" s="4">
-        <f>AVERAGE(H5,I5)</f>
+        <f t="shared" si="1"/>
         <v>6.93</v>
       </c>
       <c r="K5" s="5">
@@ -1437,7 +1437,7 @@
         <v>6.9</v>
       </c>
       <c r="M5" s="4">
-        <f>AVERAGE(K5,L5)</f>
+        <f t="shared" si="2"/>
         <v>6.99</v>
       </c>
       <c r="N5" s="5">
@@ -1447,7 +1447,7 @@
         <v>7.21</v>
       </c>
       <c r="P5" s="4">
-        <f>AVERAGE(N5,O5)</f>
+        <f t="shared" si="3"/>
         <v>7.3</v>
       </c>
       <c r="Q5" s="5">
@@ -1457,7 +1457,7 @@
         <v>7.41</v>
       </c>
       <c r="S5" s="4">
-        <f>AVERAGE(Q5,R5)</f>
+        <f t="shared" si="4"/>
         <v>7.5950000000000006</v>
       </c>
       <c r="T5" s="5">
@@ -1467,7 +1467,7 @@
         <v>7.67</v>
       </c>
       <c r="V5" s="4">
-        <f>AVERAGE(T5,U5)</f>
+        <f t="shared" si="5"/>
         <v>7.8250000000000002</v>
       </c>
       <c r="W5" s="5">
@@ -1477,7 +1477,7 @@
         <v>8.82</v>
       </c>
       <c r="Y5" s="4">
-        <f>AVERAGE(W5,X5)</f>
+        <f t="shared" si="6"/>
         <v>8.620000000000001</v>
       </c>
     </row>
@@ -1492,7 +1492,7 @@
         <v>7.7</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>7.66</v>
       </c>
       <c r="E6" s="4">
@@ -1502,7 +1502,7 @@
         <v>7.67</v>
       </c>
       <c r="G6" s="4">
-        <f>AVERAGE(E6,F6)</f>
+        <f t="shared" si="0"/>
         <v>7.88</v>
       </c>
       <c r="H6" s="4">
@@ -1512,7 +1512,7 @@
         <v>7.97</v>
       </c>
       <c r="J6" s="4">
-        <f>AVERAGE(H6,I6)</f>
+        <f t="shared" si="1"/>
         <v>7.7750000000000004</v>
       </c>
       <c r="K6" s="4">
@@ -1522,7 +1522,7 @@
         <v>7.51</v>
       </c>
       <c r="M6" s="4">
-        <f>AVERAGE(K6,L6)</f>
+        <f t="shared" si="2"/>
         <v>7.5549999999999997</v>
       </c>
       <c r="N6" s="4">
@@ -1532,7 +1532,7 @@
         <v>7.85</v>
       </c>
       <c r="P6" s="4">
-        <f>AVERAGE(N6,O6)</f>
+        <f t="shared" si="3"/>
         <v>7.8849999999999998</v>
       </c>
       <c r="Q6" s="4">
@@ -1542,7 +1542,7 @@
         <v>7.9</v>
       </c>
       <c r="S6" s="4">
-        <f>AVERAGE(Q6,R6)</f>
+        <f t="shared" si="4"/>
         <v>8.0449999999999999</v>
       </c>
       <c r="T6" s="4">
@@ -1552,7 +1552,7 @@
         <v>8.3699999999999992</v>
       </c>
       <c r="V6" s="4">
-        <f>AVERAGE(T6,U6)</f>
+        <f t="shared" si="5"/>
         <v>8.39</v>
       </c>
       <c r="W6" s="4">
@@ -1562,7 +1562,7 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="Y6" s="4">
-        <f>AVERAGE(W6,X6)</f>
+        <f t="shared" si="6"/>
         <v>8.9899999999999984</v>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
         <v>11.95</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>11.925000000000001</v>
       </c>
       <c r="E7" s="5">
@@ -1587,7 +1587,7 @@
         <v>12.79</v>
       </c>
       <c r="G7" s="4">
-        <f>AVERAGE(E7,F7)</f>
+        <f t="shared" si="0"/>
         <v>12.815</v>
       </c>
       <c r="H7" s="5">
@@ -1597,7 +1597,7 @@
         <v>12.98</v>
       </c>
       <c r="J7" s="4">
-        <f>AVERAGE(H7,I7)</f>
+        <f t="shared" si="1"/>
         <v>12.82</v>
       </c>
       <c r="K7" s="5">
@@ -1607,7 +1607,7 @@
         <v>12.56</v>
       </c>
       <c r="M7" s="4">
-        <f>AVERAGE(K7,L7)</f>
+        <f t="shared" si="2"/>
         <v>12.635000000000002</v>
       </c>
       <c r="N7" s="5">
@@ -1617,7 +1617,7 @@
         <v>12.82</v>
       </c>
       <c r="P7" s="4">
-        <f>AVERAGE(N7,O7)</f>
+        <f t="shared" si="3"/>
         <v>12.81</v>
       </c>
       <c r="Q7" s="5">
@@ -1627,7 +1627,7 @@
         <v>13.1</v>
       </c>
       <c r="S7" s="4">
-        <f>AVERAGE(Q7,R7)</f>
+        <f t="shared" si="4"/>
         <v>13.145</v>
       </c>
       <c r="T7" s="5">
@@ -1637,7 +1637,7 @@
         <v>13.39</v>
       </c>
       <c r="V7" s="4">
-        <f>AVERAGE(T7,U7)</f>
+        <f t="shared" si="5"/>
         <v>13.465</v>
       </c>
       <c r="W7" s="5">
@@ -1647,7 +1647,7 @@
         <v>13.77</v>
       </c>
       <c r="Y7" s="4">
-        <f>AVERAGE(W7,X7)</f>
+        <f t="shared" si="6"/>
         <v>14.01</v>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
         <v>14.34</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>14.48</v>
       </c>
       <c r="E8" s="4">
@@ -1672,7 +1672,7 @@
         <v>14.43</v>
       </c>
       <c r="G8" s="4">
-        <f>AVERAGE(E8,F8)</f>
+        <f t="shared" si="0"/>
         <v>14.824999999999999</v>
       </c>
       <c r="H8" s="4">
@@ -1682,7 +1682,7 @@
         <v>15.3</v>
       </c>
       <c r="J8" s="4">
-        <f>AVERAGE(H8,I8)</f>
+        <f t="shared" si="1"/>
         <v>15.164999999999999</v>
       </c>
       <c r="K8" s="4">
@@ -1692,7 +1692,7 @@
         <v>14.91</v>
       </c>
       <c r="M8" s="4">
-        <f>AVERAGE(K8,L8)</f>
+        <f t="shared" si="2"/>
         <v>15.07</v>
       </c>
       <c r="N8" s="4">
@@ -1702,7 +1702,7 @@
         <v>15.41</v>
       </c>
       <c r="P8" s="4">
-        <f>AVERAGE(N8,O8)</f>
+        <f t="shared" si="3"/>
         <v>15.42</v>
       </c>
       <c r="Q8" s="4">
@@ -1712,7 +1712,7 @@
         <v>15.59</v>
       </c>
       <c r="S8" s="4">
-        <f>AVERAGE(Q8,R8)</f>
+        <f t="shared" si="4"/>
         <v>16.02</v>
       </c>
       <c r="T8" s="4">
@@ -1722,7 +1722,7 @@
         <v>17.03</v>
       </c>
       <c r="V8" s="4">
-        <f>AVERAGE(T8,U8)</f>
+        <f t="shared" si="5"/>
         <v>17.175000000000001</v>
       </c>
       <c r="W8" s="4">
@@ -1732,7 +1732,7 @@
         <v>17.16</v>
       </c>
       <c r="Y8" s="4">
-        <f>AVERAGE(W8,X8)</f>
+        <f t="shared" si="6"/>
         <v>17.52</v>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
         <v>11.44</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>11.504999999999999</v>
       </c>
       <c r="E9" s="5">
@@ -1757,7 +1757,7 @@
         <v>11.67</v>
       </c>
       <c r="G9" s="4">
-        <f>AVERAGE(E9,F9)</f>
+        <f t="shared" si="0"/>
         <v>12.145</v>
       </c>
       <c r="H9" s="5">
@@ -1767,7 +1767,7 @@
         <v>12.76</v>
       </c>
       <c r="J9" s="4">
-        <f>AVERAGE(H9,I9)</f>
+        <f t="shared" si="1"/>
         <v>12.55</v>
       </c>
       <c r="K9" s="5">
@@ -1777,7 +1777,7 @@
         <v>12.3</v>
       </c>
       <c r="M9" s="4">
-        <f>AVERAGE(K9,L9)</f>
+        <f t="shared" si="2"/>
         <v>12.46</v>
       </c>
       <c r="N9" s="5">
@@ -1787,7 +1787,7 @@
         <v>13.01</v>
       </c>
       <c r="P9" s="4">
-        <f>AVERAGE(N9,O9)</f>
+        <f t="shared" si="3"/>
         <v>13.074999999999999</v>
       </c>
       <c r="Q9" s="5">
@@ -1797,7 +1797,7 @@
         <v>13.04</v>
       </c>
       <c r="S9" s="4">
-        <f>AVERAGE(Q9,R9)</f>
+        <f t="shared" si="4"/>
         <v>13.364999999999998</v>
       </c>
       <c r="T9" s="5">
@@ -1807,7 +1807,7 @@
         <v>13.86</v>
       </c>
       <c r="V9" s="4">
-        <f>AVERAGE(T9,U9)</f>
+        <f t="shared" si="5"/>
         <v>14.074999999999999</v>
       </c>
       <c r="W9" s="5">
@@ -1817,13 +1817,13 @@
         <v>13.53</v>
       </c>
       <c r="Y9" s="4">
-        <f>AVERAGE(W9,X9)</f>
+        <f t="shared" si="6"/>
         <v>13.94</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B10" s="4">
         <v>4.45</v>
@@ -1832,7 +1832,7 @@
         <v>4.6100000000000003</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>4.53</v>
       </c>
       <c r="E10" s="4">
@@ -1842,7 +1842,7 @@
         <v>4.67</v>
       </c>
       <c r="G10" s="4">
-        <f>AVERAGE(E10,F10)</f>
+        <f t="shared" si="0"/>
         <v>4.7850000000000001</v>
       </c>
       <c r="H10" s="4">
@@ -1852,7 +1852,7 @@
         <v>4.8899999999999997</v>
       </c>
       <c r="J10" s="4">
-        <f>AVERAGE(H10,I10)</f>
+        <f t="shared" si="1"/>
         <v>4.71</v>
       </c>
       <c r="K10" s="4">
@@ -1862,7 +1862,7 @@
         <v>4.5</v>
       </c>
       <c r="M10" s="4">
-        <f>AVERAGE(K10,L10)</f>
+        <f t="shared" si="2"/>
         <v>4.5600000000000005</v>
       </c>
       <c r="N10" s="4">
@@ -1872,7 +1872,7 @@
         <v>4.7699999999999996</v>
       </c>
       <c r="P10" s="4">
-        <f>AVERAGE(N10,O10)</f>
+        <f t="shared" si="3"/>
         <v>5.01</v>
       </c>
       <c r="Q10" s="4">
@@ -1882,7 +1882,7 @@
         <v>5.3</v>
       </c>
       <c r="S10" s="4">
-        <f>AVERAGE(Q10,R10)</f>
+        <f t="shared" si="4"/>
         <v>5.25</v>
       </c>
       <c r="T10" s="4">
@@ -1892,7 +1892,7 @@
         <v>5.04</v>
       </c>
       <c r="V10" s="4">
-        <f>AVERAGE(T10,U10)</f>
+        <f t="shared" si="5"/>
         <v>5.13</v>
       </c>
       <c r="W10" s="4">
@@ -1902,13 +1902,13 @@
         <v>4.83</v>
       </c>
       <c r="Y10" s="4">
-        <f>AVERAGE(W10,X10)</f>
+        <f t="shared" si="6"/>
         <v>5.1150000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B11" s="5">
         <v>6.24</v>
@@ -1917,7 +1917,7 @@
         <v>6.03</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>6.1349999999999998</v>
       </c>
       <c r="E11" s="5">
@@ -1927,7 +1927,7 @@
         <v>5.75</v>
       </c>
       <c r="G11" s="4">
-        <f>AVERAGE(E11,F11)</f>
+        <f t="shared" si="0"/>
         <v>5.9350000000000005</v>
       </c>
       <c r="H11" s="5">
@@ -1937,7 +1937,7 @@
         <v>6.13</v>
       </c>
       <c r="J11" s="4">
-        <f>AVERAGE(H11,I11)</f>
+        <f t="shared" si="1"/>
         <v>6.0250000000000004</v>
       </c>
       <c r="K11" s="5">
@@ -1947,7 +1947,7 @@
         <v>5.8</v>
       </c>
       <c r="M11" s="4">
-        <f>AVERAGE(K11,L11)</f>
+        <f t="shared" si="2"/>
         <v>5.85</v>
       </c>
       <c r="N11" s="5">
@@ -1957,7 +1957,7 @@
         <v>5.83</v>
       </c>
       <c r="P11" s="4">
-        <f>AVERAGE(N11,O11)</f>
+        <f t="shared" si="3"/>
         <v>6.0150000000000006</v>
       </c>
       <c r="Q11" s="5">
@@ -1967,7 +1967,7 @@
         <v>6.13</v>
       </c>
       <c r="S11" s="4">
-        <f>AVERAGE(Q11,R11)</f>
+        <f t="shared" si="4"/>
         <v>6.0949999999999998</v>
       </c>
       <c r="T11" s="5">
@@ -1977,7 +1977,7 @@
         <v>5.84</v>
       </c>
       <c r="V11" s="4">
-        <f>AVERAGE(T11,U11)</f>
+        <f t="shared" si="5"/>
         <v>5.91</v>
       </c>
       <c r="W11" s="5">
@@ -1987,13 +1987,13 @@
         <v>5.78</v>
       </c>
       <c r="Y11" s="4">
-        <f>AVERAGE(W11,X11)</f>
+        <f t="shared" si="6"/>
         <v>6.01</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="4">
         <v>4.6900000000000004</v>
@@ -2002,7 +2002,7 @@
         <v>4.6100000000000003</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>4.6500000000000004</v>
       </c>
       <c r="E12" s="4">
@@ -2012,7 +2012,7 @@
         <v>4.67</v>
       </c>
       <c r="G12" s="4">
-        <f>AVERAGE(E12,F12)</f>
+        <f t="shared" si="0"/>
         <v>4.6950000000000003</v>
       </c>
       <c r="H12" s="4">
@@ -2022,7 +2022,7 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="J12" s="4">
-        <f>AVERAGE(H12,I12)</f>
+        <f t="shared" si="1"/>
         <v>4.6100000000000003</v>
       </c>
       <c r="K12" s="4">
@@ -2032,7 +2032,7 @@
         <v>3.42</v>
       </c>
       <c r="M12" s="4">
-        <f>AVERAGE(K12,L12)</f>
+        <f t="shared" si="2"/>
         <v>3.4450000000000003</v>
       </c>
       <c r="N12" s="4">
@@ -2042,7 +2042,7 @@
         <v>3.55</v>
       </c>
       <c r="P12" s="4">
-        <f>AVERAGE(N12,O12)</f>
+        <f t="shared" si="3"/>
         <v>3.5599999999999996</v>
       </c>
       <c r="Q12" s="4">
@@ -2052,7 +2052,7 @@
         <v>3.78</v>
       </c>
       <c r="S12" s="4">
-        <f>AVERAGE(Q12,R12)</f>
+        <f t="shared" si="4"/>
         <v>3.7749999999999999</v>
       </c>
       <c r="T12" s="4">
@@ -2062,7 +2062,7 @@
         <v>3.75</v>
       </c>
       <c r="V12" s="4">
-        <f>AVERAGE(T12,U12)</f>
+        <f t="shared" si="5"/>
         <v>3.75</v>
       </c>
       <c r="W12" s="4">
@@ -2072,13 +2072,13 @@
         <v>3.61</v>
       </c>
       <c r="Y12" s="4">
-        <f>AVERAGE(W12,X12)</f>
+        <f t="shared" si="6"/>
         <v>3.77</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="5">
         <v>8.06</v>
@@ -2087,7 +2087,7 @@
         <v>7.98</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>8.02</v>
       </c>
       <c r="E13" s="5">
@@ -2097,7 +2097,7 @@
         <v>7.97</v>
       </c>
       <c r="G13" s="4">
-        <f>AVERAGE(E13,F13)</f>
+        <f t="shared" si="0"/>
         <v>8.1850000000000005</v>
       </c>
       <c r="H13" s="5">
@@ -2107,7 +2107,7 @@
         <v>8.43</v>
       </c>
       <c r="J13" s="4">
-        <f>AVERAGE(H13,I13)</f>
+        <f t="shared" si="1"/>
         <v>8.1549999999999994</v>
       </c>
       <c r="K13" s="5">
@@ -2117,7 +2117,7 @@
         <v>6.82</v>
       </c>
       <c r="M13" s="4">
-        <f>AVERAGE(K13,L13)</f>
+        <f t="shared" si="2"/>
         <v>6.8650000000000002</v>
       </c>
       <c r="N13" s="5">
@@ -2127,7 +2127,7 @@
         <v>7.25</v>
       </c>
       <c r="P13" s="4">
-        <f>AVERAGE(N13,O13)</f>
+        <f t="shared" si="3"/>
         <v>7.35</v>
       </c>
       <c r="Q13" s="5">
@@ -2137,7 +2137,7 @@
         <v>7.83</v>
       </c>
       <c r="S13" s="4">
-        <f>AVERAGE(Q13,R13)</f>
+        <f t="shared" si="4"/>
         <v>8.27</v>
       </c>
       <c r="T13" s="5">
@@ -2147,7 +2147,7 @@
         <v>8.77</v>
       </c>
       <c r="V13" s="4">
-        <f>AVERAGE(T13,U13)</f>
+        <f t="shared" si="5"/>
         <v>8.86</v>
       </c>
       <c r="W13" s="5">
@@ -2157,13 +2157,13 @@
         <v>9.57</v>
       </c>
       <c r="Y13" s="4">
-        <f>AVERAGE(W13,X13)</f>
+        <f t="shared" si="6"/>
         <v>9.5500000000000007</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="4">
         <v>10.93</v>
@@ -2172,7 +2172,7 @@
         <v>10.98</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>10.955</v>
       </c>
       <c r="E14" s="4">
@@ -2182,7 +2182,7 @@
         <v>11.25</v>
       </c>
       <c r="G14" s="4">
-        <f>AVERAGE(E14,F14)</f>
+        <f t="shared" si="0"/>
         <v>11.52</v>
       </c>
       <c r="H14" s="4">
@@ -2192,7 +2192,7 @@
         <v>11.84</v>
       </c>
       <c r="J14" s="4">
-        <f>AVERAGE(H14,I14)</f>
+        <f t="shared" si="1"/>
         <v>11.625</v>
       </c>
       <c r="K14" s="4">
@@ -2202,7 +2202,7 @@
         <v>10.58</v>
       </c>
       <c r="M14" s="4">
-        <f>AVERAGE(K14,L14)</f>
+        <f t="shared" si="2"/>
         <v>10.690000000000001</v>
       </c>
       <c r="N14" s="4">
@@ -2212,7 +2212,7 @@
         <v>11.19</v>
       </c>
       <c r="P14" s="4">
-        <f>AVERAGE(N14,O14)</f>
+        <f t="shared" si="3"/>
         <v>11.254999999999999</v>
       </c>
       <c r="Q14" s="4">
@@ -2222,7 +2222,7 @@
         <v>12.23</v>
       </c>
       <c r="S14" s="4">
-        <f>AVERAGE(Q14,R14)</f>
+        <f t="shared" si="4"/>
         <v>12.620000000000001</v>
       </c>
       <c r="T14" s="4">
@@ -2232,7 +2232,7 @@
         <v>13.19</v>
       </c>
       <c r="V14" s="4">
-        <f>AVERAGE(T14,U14)</f>
+        <f t="shared" si="5"/>
         <v>13.23</v>
       </c>
       <c r="W14" s="4">
@@ -2242,13 +2242,13 @@
         <v>13.32</v>
       </c>
       <c r="Y14" s="4">
-        <f>AVERAGE(W14,X14)</f>
+        <f t="shared" si="6"/>
         <v>13.45</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="5">
         <v>11.34</v>
@@ -2257,7 +2257,7 @@
         <v>11.49</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>11.414999999999999</v>
       </c>
       <c r="E15" s="5">
@@ -2267,7 +2267,7 @@
         <v>11.91</v>
       </c>
       <c r="G15" s="4">
-        <f>AVERAGE(E15,F15)</f>
+        <f t="shared" si="0"/>
         <v>12.355</v>
       </c>
       <c r="H15" s="5">
@@ -2277,7 +2277,7 @@
         <v>12.8</v>
       </c>
       <c r="J15" s="4">
-        <f>AVERAGE(H15,I15)</f>
+        <f t="shared" si="1"/>
         <v>12.54</v>
       </c>
       <c r="K15" s="5">
@@ -2287,7 +2287,7 @@
         <v>11.44</v>
       </c>
       <c r="M15" s="4">
-        <f>AVERAGE(K15,L15)</f>
+        <f t="shared" si="2"/>
         <v>11.57</v>
       </c>
       <c r="N15" s="5">
@@ -2297,7 +2297,7 @@
         <v>11.81</v>
       </c>
       <c r="P15" s="4">
-        <f>AVERAGE(N15,O15)</f>
+        <f t="shared" si="3"/>
         <v>11.97</v>
       </c>
       <c r="Q15" s="5">
@@ -2307,7 +2307,7 @@
         <v>12.36</v>
       </c>
       <c r="S15" s="4">
-        <f>AVERAGE(Q15,R15)</f>
+        <f t="shared" si="4"/>
         <v>12.69</v>
       </c>
       <c r="T15" s="5">
@@ -2317,7 +2317,7 @@
         <v>13.1</v>
       </c>
       <c r="V15" s="4">
-        <f>AVERAGE(T15,U15)</f>
+        <f t="shared" si="5"/>
         <v>13.219999999999999</v>
       </c>
       <c r="W15" s="5">
@@ -2327,13 +2327,13 @@
         <v>13.16</v>
       </c>
       <c r="Y15" s="4">
-        <f>AVERAGE(W15,X15)</f>
+        <f t="shared" si="6"/>
         <v>14.035</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="4">
         <v>10.38</v>
@@ -2342,7 +2342,7 @@
         <v>10.49</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>10.435</v>
       </c>
       <c r="E16" s="4">
@@ -2352,7 +2352,7 @@
         <v>10.59</v>
       </c>
       <c r="G16" s="4">
-        <f>AVERAGE(E16,F16)</f>
+        <f t="shared" si="0"/>
         <v>10.995000000000001</v>
       </c>
       <c r="H16" s="4">
@@ -2362,7 +2362,7 @@
         <v>11.46</v>
       </c>
       <c r="J16" s="4">
-        <f>AVERAGE(H16,I16)</f>
+        <f t="shared" si="1"/>
         <v>11.275</v>
       </c>
       <c r="K16" s="4">
@@ -2372,7 +2372,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="M16" s="4">
-        <f>AVERAGE(K16,L16)</f>
+        <f t="shared" si="2"/>
         <v>10.285</v>
       </c>
       <c r="N16" s="4">
@@ -2382,7 +2382,7 @@
         <v>10.85</v>
       </c>
       <c r="P16" s="4">
-        <f>AVERAGE(N16,O16)</f>
+        <f t="shared" si="3"/>
         <v>10.914999999999999</v>
       </c>
       <c r="Q16" s="4">
@@ -2392,7 +2392,7 @@
         <v>11.2</v>
       </c>
       <c r="S16" s="4">
-        <f>AVERAGE(Q16,R16)</f>
+        <f t="shared" si="4"/>
         <v>11.484999999999999</v>
       </c>
       <c r="T16" s="4">
@@ -2402,7 +2402,7 @@
         <v>11.85</v>
       </c>
       <c r="V16" s="4">
-        <f>AVERAGE(T16,U16)</f>
+        <f t="shared" si="5"/>
         <v>11.95</v>
       </c>
       <c r="W16" s="4">
@@ -2412,13 +2412,13 @@
         <v>12.28</v>
       </c>
       <c r="Y16" s="4">
-        <f>AVERAGE(W16,X16)</f>
+        <f t="shared" si="6"/>
         <v>12.309999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="5">
         <v>6.16</v>
@@ -2427,7 +2427,7 @@
         <v>6.24</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>6.2</v>
       </c>
       <c r="E17" s="5">
@@ -2437,7 +2437,7 @@
         <v>6.5</v>
       </c>
       <c r="G17" s="4">
-        <f>AVERAGE(E17,F17)</f>
+        <f t="shared" si="0"/>
         <v>6.58</v>
       </c>
       <c r="H17" s="5">
@@ -2447,7 +2447,7 @@
         <v>6.63</v>
       </c>
       <c r="J17" s="4">
-        <f>AVERAGE(H17,I17)</f>
+        <f t="shared" si="1"/>
         <v>6.2750000000000004</v>
       </c>
       <c r="K17" s="5">
@@ -2457,7 +2457,7 @@
         <v>4.9400000000000004</v>
       </c>
       <c r="M17" s="4">
-        <f>AVERAGE(K17,L17)</f>
+        <f t="shared" si="2"/>
         <v>5.0150000000000006</v>
       </c>
       <c r="N17" s="5">
@@ -2467,7 +2467,7 @@
         <v>5.25</v>
       </c>
       <c r="P17" s="4">
-        <f>AVERAGE(N17,O17)</f>
+        <f t="shared" si="3"/>
         <v>5.2450000000000001</v>
       </c>
       <c r="Q17" s="5">
@@ -2477,7 +2477,7 @@
         <v>5.59</v>
       </c>
       <c r="S17" s="4">
-        <f>AVERAGE(Q17,R17)</f>
+        <f t="shared" si="4"/>
         <v>5.52</v>
       </c>
       <c r="T17" s="5">
@@ -2487,7 +2487,7 @@
         <v>5.36</v>
       </c>
       <c r="V17" s="4">
-        <f>AVERAGE(T17,U17)</f>
+        <f t="shared" si="5"/>
         <v>5.3900000000000006</v>
       </c>
       <c r="W17" s="5">
@@ -2497,13 +2497,13 @@
         <v>5.75</v>
       </c>
       <c r="Y17" s="4">
-        <f>AVERAGE(W17,X17)</f>
+        <f t="shared" si="6"/>
         <v>5.8250000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="4">
         <v>4.57</v>
@@ -2512,7 +2512,7 @@
         <v>4.53</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>4.5500000000000007</v>
       </c>
       <c r="E18" s="4">
@@ -2522,7 +2522,7 @@
         <v>4.72</v>
       </c>
       <c r="G18" s="4">
-        <f>AVERAGE(E18,F18)</f>
+        <f t="shared" si="0"/>
         <v>4.625</v>
       </c>
       <c r="H18" s="4">
@@ -2532,7 +2532,7 @@
         <v>4.45</v>
       </c>
       <c r="J18" s="4">
-        <f>AVERAGE(H18,I18)</f>
+        <f t="shared" si="1"/>
         <v>4.1150000000000002</v>
       </c>
       <c r="K18" s="4">
@@ -2542,7 +2542,7 @@
         <v>3.61</v>
       </c>
       <c r="M18" s="4">
-        <f>AVERAGE(K18,L18)</f>
+        <f t="shared" si="2"/>
         <v>3.7</v>
       </c>
       <c r="N18" s="4">
@@ -2552,7 +2552,7 @@
         <v>3.91</v>
       </c>
       <c r="P18" s="4">
-        <f>AVERAGE(N18,O18)</f>
+        <f t="shared" si="3"/>
         <v>3.96</v>
       </c>
       <c r="Q18" s="4">
@@ -2562,7 +2562,7 @@
         <v>4.1399999999999997</v>
       </c>
       <c r="S18" s="4">
-        <f>AVERAGE(Q18,R18)</f>
+        <f t="shared" si="4"/>
         <v>4.1950000000000003</v>
       </c>
       <c r="T18" s="4">
@@ -2572,7 +2572,7 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="V18" s="4">
-        <f>AVERAGE(T18,U18)</f>
+        <f t="shared" si="5"/>
         <v>4.2</v>
       </c>
       <c r="W18" s="4">
@@ -2582,13 +2582,13 @@
         <v>5.25</v>
       </c>
       <c r="Y18" s="4">
-        <f>AVERAGE(W18,X18)</f>
+        <f t="shared" si="6"/>
         <v>4.9950000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="5">
         <v>13.68</v>
@@ -2597,7 +2597,7 @@
         <v>13.82</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>13.75</v>
       </c>
       <c r="E19" s="5">
@@ -2607,7 +2607,7 @@
         <v>13.83</v>
       </c>
       <c r="G19" s="4">
-        <f>AVERAGE(E19,F19)</f>
+        <f t="shared" si="0"/>
         <v>13.984999999999999</v>
       </c>
       <c r="H19" s="5">
@@ -2617,7 +2617,7 @@
         <v>14.23</v>
       </c>
       <c r="J19" s="4">
-        <f>AVERAGE(H19,I19)</f>
+        <f t="shared" si="1"/>
         <v>14.100000000000001</v>
       </c>
       <c r="K19" s="5">
@@ -2627,7 +2627,7 @@
         <v>13.88</v>
       </c>
       <c r="M19" s="4">
-        <f>AVERAGE(K19,L19)</f>
+        <f t="shared" si="2"/>
         <v>14.22</v>
       </c>
       <c r="N19" s="5">
@@ -2637,7 +2637,7 @@
         <v>14.63</v>
       </c>
       <c r="P19" s="4">
-        <f>AVERAGE(N19,O19)</f>
+        <f t="shared" si="3"/>
         <v>14.690000000000001</v>
       </c>
       <c r="Q19" s="5">
@@ -2647,7 +2647,7 @@
         <v>15.05</v>
       </c>
       <c r="S19" s="4">
-        <f>AVERAGE(Q19,R19)</f>
+        <f t="shared" si="4"/>
         <v>15.56</v>
       </c>
       <c r="T19" s="5">
@@ -2657,7 +2657,7 @@
         <v>16.02</v>
       </c>
       <c r="V19" s="4">
-        <f>AVERAGE(T19,U19)</f>
+        <f t="shared" si="5"/>
         <v>16.25</v>
       </c>
       <c r="W19" s="5">
@@ -2667,13 +2667,13 @@
         <v>16.54</v>
       </c>
       <c r="Y19" s="4">
-        <f>AVERAGE(W19,X19)</f>
+        <f t="shared" si="6"/>
         <v>16.82</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="4">
         <v>20.05</v>
@@ -2682,7 +2682,7 @@
         <v>20.23</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>20.14</v>
       </c>
       <c r="E20" s="4">
@@ -2692,7 +2692,7 @@
         <v>20.440000000000001</v>
       </c>
       <c r="G20" s="4">
-        <f>AVERAGE(E20,F20)</f>
+        <f t="shared" si="0"/>
         <v>20.715</v>
       </c>
       <c r="H20" s="4">
@@ -2702,7 +2702,7 @@
         <v>21.21</v>
       </c>
       <c r="J20" s="4">
-        <f>AVERAGE(H20,I20)</f>
+        <f t="shared" si="1"/>
         <v>21.055</v>
       </c>
       <c r="K20" s="4">
@@ -2712,7 +2712,7 @@
         <v>20.62</v>
       </c>
       <c r="M20" s="4">
-        <f>AVERAGE(K20,L20)</f>
+        <f t="shared" si="2"/>
         <v>20.855</v>
       </c>
       <c r="N20" s="4">
@@ -2722,7 +2722,7 @@
         <v>21.03</v>
       </c>
       <c r="P20" s="4">
-        <f>AVERAGE(N20,O20)</f>
+        <f t="shared" si="3"/>
         <v>21.19</v>
       </c>
       <c r="Q20" s="4">
@@ -2732,7 +2732,7 @@
         <v>21.38</v>
       </c>
       <c r="S20" s="4">
-        <f>AVERAGE(Q20,R20)</f>
+        <f t="shared" si="4"/>
         <v>21.615000000000002</v>
       </c>
       <c r="T20" s="4">
@@ -2742,7 +2742,7 @@
         <v>22.01</v>
       </c>
       <c r="V20" s="4">
-        <f>AVERAGE(T20,U20)</f>
+        <f t="shared" si="5"/>
         <v>22.1</v>
       </c>
       <c r="W20" s="4">
@@ -2752,13 +2752,13 @@
         <v>22.58</v>
       </c>
       <c r="Y20" s="4">
-        <f>AVERAGE(W20,X20)</f>
+        <f t="shared" si="6"/>
         <v>22.594999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" s="5">
         <v>6.73</v>
@@ -2767,7 +2767,7 @@
         <v>6.81</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>6.77</v>
       </c>
       <c r="E21" s="5">
@@ -2777,7 +2777,7 @@
         <v>6.84</v>
       </c>
       <c r="G21" s="4">
-        <f>AVERAGE(E21,F21)</f>
+        <f t="shared" si="0"/>
         <v>6.9950000000000001</v>
       </c>
       <c r="H21" s="5">
@@ -2787,7 +2787,7 @@
         <v>7.24</v>
       </c>
       <c r="J21" s="4">
-        <f>AVERAGE(H21,I21)</f>
+        <f t="shared" si="1"/>
         <v>7.2050000000000001</v>
       </c>
       <c r="K21" s="5">
@@ -2797,7 +2797,7 @@
         <v>7.28</v>
       </c>
       <c r="M21" s="4">
-        <f>AVERAGE(K21,L21)</f>
+        <f t="shared" si="2"/>
         <v>7.3849999999999998</v>
       </c>
       <c r="N21" s="5">
@@ -2807,7 +2807,7 @@
         <v>7.37</v>
       </c>
       <c r="P21" s="4">
-        <f>AVERAGE(N21,O21)</f>
+        <f t="shared" si="3"/>
         <v>7.57</v>
       </c>
       <c r="Q21" s="5">
@@ -2817,7 +2817,7 @@
         <v>7.86</v>
       </c>
       <c r="S21" s="4">
-        <f>AVERAGE(Q21,R21)</f>
+        <f t="shared" si="4"/>
         <v>7.87</v>
       </c>
       <c r="T21" s="5">
@@ -2827,7 +2827,7 @@
         <v>8</v>
       </c>
       <c r="V21" s="4">
-        <f>AVERAGE(T21,U21)</f>
+        <f t="shared" si="5"/>
         <v>7.9350000000000005</v>
       </c>
       <c r="W21" s="5">
@@ -2837,13 +2837,13 @@
         <v>8.44</v>
       </c>
       <c r="Y21" s="4">
-        <f>AVERAGE(W21,X21)</f>
+        <f t="shared" si="6"/>
         <v>8.2349999999999994</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" s="4">
         <v>5.28</v>
@@ -2852,7 +2852,7 @@
         <v>5.22</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>5.25</v>
       </c>
       <c r="E22" s="4">
@@ -2862,7 +2862,7 @@
         <v>5.16</v>
       </c>
       <c r="G22" s="4">
-        <f>AVERAGE(E22,F22)</f>
+        <f t="shared" si="0"/>
         <v>5.16</v>
       </c>
       <c r="H22" s="4">
@@ -2872,7 +2872,7 @@
         <v>5.26</v>
       </c>
       <c r="J22" s="4">
-        <f>AVERAGE(H22,I22)</f>
+        <f t="shared" si="1"/>
         <v>5.04</v>
       </c>
       <c r="K22" s="4">
@@ -2882,7 +2882,7 @@
         <v>4.8099999999999996</v>
       </c>
       <c r="M22" s="4">
-        <f>AVERAGE(K22,L22)</f>
+        <f t="shared" si="2"/>
         <v>4.8949999999999996</v>
       </c>
       <c r="N22" s="4">
@@ -2892,7 +2892,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="P22" s="4">
-        <f>AVERAGE(N22,O22)</f>
+        <f t="shared" si="3"/>
         <v>5.1349999999999998</v>
       </c>
       <c r="Q22" s="4">
@@ -2902,7 +2902,7 @@
         <v>5.26</v>
       </c>
       <c r="S22" s="4">
-        <f>AVERAGE(Q22,R22)</f>
+        <f t="shared" si="4"/>
         <v>5.3149999999999995</v>
       </c>
       <c r="T22" s="4">
@@ -2912,7 +2912,7 @@
         <v>5.36</v>
       </c>
       <c r="V22" s="4">
-        <f>AVERAGE(T22,U22)</f>
+        <f t="shared" si="5"/>
         <v>5.51</v>
       </c>
       <c r="W22" s="4">
@@ -2922,13 +2922,13 @@
         <v>5.91</v>
       </c>
       <c r="Y22" s="4">
-        <f>AVERAGE(W22,X22)</f>
+        <f t="shared" si="6"/>
         <v>5.9250000000000007</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="5">
         <v>4.49</v>
@@ -2937,7 +2937,7 @@
         <v>4.6100000000000003</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>4.5500000000000007</v>
       </c>
       <c r="E23" s="5">
@@ -2947,7 +2947,7 @@
         <v>4.5599999999999996</v>
       </c>
       <c r="G23" s="4">
-        <f>AVERAGE(E23,F23)</f>
+        <f t="shared" si="0"/>
         <v>4.6950000000000003</v>
       </c>
       <c r="H23" s="5">
@@ -2957,7 +2957,7 @@
         <v>4.83</v>
       </c>
       <c r="J23" s="4">
-        <f>AVERAGE(H23,I23)</f>
+        <f t="shared" si="1"/>
         <v>4.6050000000000004</v>
       </c>
       <c r="K23" s="5">
@@ -2967,7 +2967,7 @@
         <v>4.47</v>
       </c>
       <c r="M23" s="4">
-        <f>AVERAGE(K23,L23)</f>
+        <f t="shared" si="2"/>
         <v>4.51</v>
       </c>
       <c r="N23" s="5">
@@ -2977,7 +2977,7 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="P23" s="4">
-        <f>AVERAGE(N23,O23)</f>
+        <f t="shared" si="3"/>
         <v>4.5950000000000006</v>
       </c>
       <c r="Q23" s="5">
@@ -2987,7 +2987,7 @@
         <v>4.7</v>
       </c>
       <c r="S23" s="4">
-        <f>AVERAGE(Q23,R23)</f>
+        <f t="shared" si="4"/>
         <v>4.7149999999999999</v>
       </c>
       <c r="T23" s="5">
@@ -2997,7 +2997,7 @@
         <v>4.5199999999999996</v>
       </c>
       <c r="V23" s="4">
-        <f>AVERAGE(T23,U23)</f>
+        <f t="shared" si="5"/>
         <v>4.6849999999999996</v>
       </c>
       <c r="W23" s="5">
@@ -3007,13 +3007,13 @@
         <v>4.72</v>
       </c>
       <c r="Y23" s="4">
-        <f>AVERAGE(W23,X23)</f>
+        <f t="shared" si="6"/>
         <v>4.8550000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" s="4">
         <v>6.31</v>
@@ -3022,7 +3022,7 @@
         <v>6.44</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>6.375</v>
       </c>
       <c r="E24" s="4">
@@ -3032,7 +3032,7 @@
         <v>6.27</v>
       </c>
       <c r="G24" s="4">
-        <f>AVERAGE(E24,F24)</f>
+        <f t="shared" si="0"/>
         <v>6.4049999999999994</v>
       </c>
       <c r="H24" s="4">
@@ -3042,7 +3042,7 @@
         <v>6.64</v>
       </c>
       <c r="J24" s="4">
-        <f>AVERAGE(H24,I24)</f>
+        <f t="shared" si="1"/>
         <v>6.3699999999999992</v>
       </c>
       <c r="K24" s="4">
@@ -3052,7 +3052,7 @@
         <v>5.91</v>
       </c>
       <c r="M24" s="4">
-        <f>AVERAGE(K24,L24)</f>
+        <f t="shared" si="2"/>
         <v>5.9250000000000007</v>
       </c>
       <c r="N24" s="4">
@@ -3062,7 +3062,7 @@
         <v>6.06</v>
       </c>
       <c r="P24" s="4">
-        <f>AVERAGE(N24,O24)</f>
+        <f t="shared" si="3"/>
         <v>6.0449999999999999</v>
       </c>
       <c r="Q24" s="4">
@@ -3072,7 +3072,7 @@
         <v>6.08</v>
       </c>
       <c r="S24" s="4">
-        <f>AVERAGE(Q24,R24)</f>
+        <f t="shared" si="4"/>
         <v>6.1349999999999998</v>
       </c>
       <c r="T24" s="4">
@@ -3082,7 +3082,7 @@
         <v>6</v>
       </c>
       <c r="V24" s="4">
-        <f>AVERAGE(T24,U24)</f>
+        <f t="shared" si="5"/>
         <v>6.0549999999999997</v>
       </c>
       <c r="W24" s="4">
@@ -3092,13 +3092,13 @@
         <v>6.1</v>
       </c>
       <c r="Y24" s="4">
-        <f>AVERAGE(W24,X24)</f>
+        <f t="shared" si="6"/>
         <v>6.165</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" s="5">
         <v>6.77</v>
@@ -3107,7 +3107,7 @@
         <v>6.86</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>6.8149999999999995</v>
       </c>
       <c r="E25" s="5">
@@ -3117,7 +3117,7 @@
         <v>6.83</v>
       </c>
       <c r="G25" s="4">
-        <f>AVERAGE(E25,F25)</f>
+        <f t="shared" si="0"/>
         <v>7.0950000000000006</v>
       </c>
       <c r="H25" s="5">
@@ -3127,7 +3127,7 @@
         <v>7.41</v>
       </c>
       <c r="J25" s="4">
-        <f>AVERAGE(H25,I25)</f>
+        <f t="shared" si="1"/>
         <v>7.1050000000000004</v>
       </c>
       <c r="K25" s="5">
@@ -3137,7 +3137,7 @@
         <v>6.49</v>
       </c>
       <c r="M25" s="4">
-        <f>AVERAGE(K25,L25)</f>
+        <f t="shared" si="2"/>
         <v>6.5600000000000005</v>
       </c>
       <c r="N25" s="5">
@@ -3147,7 +3147,7 @@
         <v>6.86</v>
       </c>
       <c r="P25" s="4">
-        <f>AVERAGE(N25,O25)</f>
+        <f t="shared" si="3"/>
         <v>6.9749999999999996</v>
       </c>
       <c r="Q25" s="5">
@@ -3157,7 +3157,7 @@
         <v>6.96</v>
       </c>
       <c r="S25" s="4">
-        <f>AVERAGE(Q25,R25)</f>
+        <f t="shared" si="4"/>
         <v>7.09</v>
       </c>
       <c r="T25" s="5">
@@ -3167,7 +3167,7 @@
         <v>6.99</v>
       </c>
       <c r="V25" s="4">
-        <f>AVERAGE(T25,U25)</f>
+        <f t="shared" si="5"/>
         <v>6.61</v>
       </c>
       <c r="W25" s="5">
@@ -3177,13 +3177,13 @@
         <v>6.32</v>
       </c>
       <c r="Y25" s="4">
-        <f>AVERAGE(W25,X25)</f>
+        <f t="shared" si="6"/>
         <v>6.28</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" s="4">
         <v>7.28</v>
@@ -3192,7 +3192,7 @@
         <v>7.34</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>7.3100000000000005</v>
       </c>
       <c r="E26" s="4">
@@ -3202,7 +3202,7 @@
         <v>7.36</v>
       </c>
       <c r="G26" s="4">
-        <f>AVERAGE(E26,F26)</f>
+        <f t="shared" si="0"/>
         <v>7.5649999999999995</v>
       </c>
       <c r="H26" s="4">
@@ -3212,7 +3212,7 @@
         <v>7.78</v>
       </c>
       <c r="J26" s="4">
-        <f>AVERAGE(H26,I26)</f>
+        <f t="shared" si="1"/>
         <v>7.7</v>
       </c>
       <c r="K26" s="4">
@@ -3222,7 +3222,7 @@
         <v>7.51</v>
       </c>
       <c r="M26" s="4">
-        <f>AVERAGE(K26,L26)</f>
+        <f t="shared" si="2"/>
         <v>7.585</v>
       </c>
       <c r="N26" s="4">
@@ -3232,7 +3232,7 @@
         <v>7.59</v>
       </c>
       <c r="P26" s="4">
-        <f>AVERAGE(N26,O26)</f>
+        <f t="shared" si="3"/>
         <v>7.6950000000000003</v>
       </c>
       <c r="Q26" s="4">
@@ -3242,7 +3242,7 @@
         <v>7.9</v>
       </c>
       <c r="S26" s="4">
-        <f>AVERAGE(Q26,R26)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="T26" s="4">
@@ -3252,7 +3252,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="V26" s="4">
-        <f>AVERAGE(T26,U26)</f>
+        <f t="shared" si="5"/>
         <v>8.27</v>
       </c>
       <c r="W26" s="4">
@@ -3262,13 +3262,13 @@
         <v>8.98</v>
       </c>
       <c r="Y26" s="4">
-        <f>AVERAGE(W26,X26)</f>
+        <f t="shared" si="6"/>
         <v>8.8150000000000013</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" s="5">
         <v>12.33</v>
@@ -3277,7 +3277,7 @@
         <v>12.3</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>12.315000000000001</v>
       </c>
       <c r="E27" s="5">
@@ -3287,7 +3287,7 @@
         <v>12.18</v>
       </c>
       <c r="G27" s="4">
-        <f>AVERAGE(E27,F27)</f>
+        <f t="shared" si="0"/>
         <v>12.59</v>
       </c>
       <c r="H27" s="5">
@@ -3297,7 +3297,7 @@
         <v>13.06</v>
       </c>
       <c r="J27" s="4">
-        <f>AVERAGE(H27,I27)</f>
+        <f t="shared" si="1"/>
         <v>12.99</v>
       </c>
       <c r="K27" s="5">
@@ -3307,7 +3307,7 @@
         <v>13.18</v>
       </c>
       <c r="M27" s="4">
-        <f>AVERAGE(K27,L27)</f>
+        <f t="shared" si="2"/>
         <v>13.33</v>
       </c>
       <c r="N27" s="5">
@@ -3317,7 +3317,7 @@
         <v>13.69</v>
       </c>
       <c r="P27" s="4">
-        <f>AVERAGE(N27,O27)</f>
+        <f t="shared" si="3"/>
         <v>13.85</v>
       </c>
       <c r="Q27" s="5">
@@ -3327,7 +3327,7 @@
         <v>14.22</v>
       </c>
       <c r="S27" s="4">
-        <f>AVERAGE(Q27,R27)</f>
+        <f t="shared" si="4"/>
         <v>14.18</v>
       </c>
       <c r="T27" s="5">
@@ -3337,7 +3337,7 @@
         <v>14.09</v>
       </c>
       <c r="V27" s="4">
-        <f>AVERAGE(T27,U27)</f>
+        <f t="shared" si="5"/>
         <v>14.27</v>
       </c>
       <c r="W27" s="5">
@@ -3347,13 +3347,13 @@
         <v>14.07</v>
       </c>
       <c r="Y27" s="4">
-        <f>AVERAGE(W27,X27)</f>
+        <f t="shared" si="6"/>
         <v>14.365</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" s="4">
         <v>8.6300000000000008</v>
@@ -3362,7 +3362,7 @@
         <v>8.66</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>8.6449999999999996</v>
       </c>
       <c r="E28" s="4">
@@ -3372,7 +3372,7 @@
         <v>8.5299999999999994</v>
       </c>
       <c r="G28" s="4">
-        <f>AVERAGE(E28,F28)</f>
+        <f t="shared" si="0"/>
         <v>8.6549999999999994</v>
       </c>
       <c r="H28" s="4">
@@ -3382,7 +3382,7 @@
         <v>8.99</v>
       </c>
       <c r="J28" s="4">
-        <f>AVERAGE(H28,I28)</f>
+        <f t="shared" si="1"/>
         <v>8.8550000000000004</v>
       </c>
       <c r="K28" s="4">
@@ -3392,7 +3392,7 @@
         <v>8.56</v>
       </c>
       <c r="M28" s="4">
-        <f>AVERAGE(K28,L28)</f>
+        <f t="shared" si="2"/>
         <v>8.625</v>
       </c>
       <c r="N28" s="4">
@@ -3402,7 +3402,7 @@
         <v>8.8699999999999992</v>
       </c>
       <c r="P28" s="4">
-        <f>AVERAGE(N28,O28)</f>
+        <f t="shared" si="3"/>
         <v>8.9649999999999999</v>
       </c>
       <c r="Q28" s="4">
@@ -3412,7 +3412,7 @@
         <v>9.48</v>
       </c>
       <c r="S28" s="4">
-        <f>AVERAGE(Q28,R28)</f>
+        <f t="shared" si="4"/>
         <v>9.43</v>
       </c>
       <c r="T28" s="4">
@@ -3422,7 +3422,7 @@
         <v>9.24</v>
       </c>
       <c r="V28" s="4">
-        <f>AVERAGE(T28,U28)</f>
+        <f t="shared" si="5"/>
         <v>9.32</v>
       </c>
       <c r="W28" s="4">
@@ -3432,13 +3432,13 @@
         <v>10.119999999999999</v>
       </c>
       <c r="Y28" s="4">
-        <f>AVERAGE(W28,X28)</f>
+        <f t="shared" si="6"/>
         <v>9.754999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" s="5">
         <v>11.17</v>
@@ -3447,7 +3447,7 @@
         <v>11.27</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>11.219999999999999</v>
       </c>
       <c r="E29" s="5">
@@ -3457,7 +3457,7 @@
         <v>11.74</v>
       </c>
       <c r="G29" s="4">
-        <f>AVERAGE(E29,F29)</f>
+        <f t="shared" si="0"/>
         <v>11.7</v>
       </c>
       <c r="H29" s="5">
@@ -3467,7 +3467,7 @@
         <v>11.69</v>
       </c>
       <c r="J29" s="4">
-        <f>AVERAGE(H29,I29)</f>
+        <f t="shared" si="1"/>
         <v>11.344999999999999</v>
       </c>
       <c r="K29" s="5">
@@ -3477,7 +3477,7 @@
         <v>11.04</v>
       </c>
       <c r="M29" s="4">
-        <f>AVERAGE(K29,L29)</f>
+        <f t="shared" si="2"/>
         <v>11.14</v>
       </c>
       <c r="N29" s="5">
@@ -3487,7 +3487,7 @@
         <v>11.32</v>
       </c>
       <c r="P29" s="4">
-        <f>AVERAGE(N29,O29)</f>
+        <f t="shared" si="3"/>
         <v>11.475000000000001</v>
       </c>
       <c r="Q29" s="5">
@@ -3497,7 +3497,7 @@
         <v>11.97</v>
       </c>
       <c r="S29" s="4">
-        <f>AVERAGE(Q29,R29)</f>
+        <f t="shared" si="4"/>
         <v>12.39</v>
       </c>
       <c r="T29" s="5">
@@ -3507,7 +3507,7 @@
         <v>12.77</v>
       </c>
       <c r="V29" s="4">
-        <f>AVERAGE(T29,U29)</f>
+        <f t="shared" si="5"/>
         <v>12.824999999999999</v>
       </c>
       <c r="W29" s="5">
@@ -3517,13 +3517,13 @@
         <v>13.74</v>
       </c>
       <c r="Y29" s="4">
-        <f>AVERAGE(W29,X29)</f>
+        <f t="shared" si="6"/>
         <v>13.32</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" s="4">
         <v>15.42</v>
@@ -3532,7 +3532,7 @@
         <v>15.51</v>
       </c>
       <c r="D30" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>15.465</v>
       </c>
       <c r="E30" s="4">
@@ -3542,7 +3542,7 @@
         <v>15.41</v>
       </c>
       <c r="G30" s="4">
-        <f>AVERAGE(E30,F30)</f>
+        <f t="shared" si="0"/>
         <v>15.51</v>
       </c>
       <c r="H30" s="4">
@@ -3552,7 +3552,7 @@
         <v>15.59</v>
       </c>
       <c r="J30" s="4">
-        <f>AVERAGE(H30,I30)</f>
+        <f t="shared" si="1"/>
         <v>15.405000000000001</v>
       </c>
       <c r="K30" s="4">
@@ -3562,7 +3562,7 @@
         <v>15.31</v>
       </c>
       <c r="M30" s="4">
-        <f>AVERAGE(K30,L30)</f>
+        <f t="shared" si="2"/>
         <v>15.414999999999999</v>
       </c>
       <c r="N30" s="4">
@@ -3572,7 +3572,7 @@
         <v>15.83</v>
       </c>
       <c r="P30" s="4">
-        <f>AVERAGE(N30,O30)</f>
+        <f t="shared" si="3"/>
         <v>16.32</v>
       </c>
       <c r="Q30" s="4">
@@ -3582,7 +3582,7 @@
         <v>17.14</v>
       </c>
       <c r="S30" s="4">
-        <f>AVERAGE(Q30,R30)</f>
+        <f t="shared" si="4"/>
         <v>17.395</v>
       </c>
       <c r="T30" s="4">
@@ -3592,7 +3592,7 @@
         <v>17.63</v>
       </c>
       <c r="V30" s="4">
-        <f>AVERAGE(T30,U30)</f>
+        <f t="shared" si="5"/>
         <v>17.674999999999997</v>
       </c>
       <c r="W30" s="4">
@@ -3602,13 +3602,13 @@
         <v>18.16</v>
       </c>
       <c r="Y30" s="4">
-        <f>AVERAGE(W30,X30)</f>
+        <f t="shared" si="6"/>
         <v>18.240000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31" s="5">
         <v>11.75</v>
@@ -3617,7 +3617,7 @@
         <v>11.92</v>
       </c>
       <c r="D31" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>11.835000000000001</v>
       </c>
       <c r="E31" s="5">
@@ -3627,7 +3627,7 @@
         <v>11.85</v>
       </c>
       <c r="G31" s="4">
-        <f>AVERAGE(E31,F31)</f>
+        <f t="shared" si="0"/>
         <v>11.57</v>
       </c>
       <c r="H31" s="5">
@@ -3637,7 +3637,7 @@
         <v>11.5</v>
       </c>
       <c r="J31" s="4">
-        <f>AVERAGE(H31,I31)</f>
+        <f t="shared" si="1"/>
         <v>11.184999999999999</v>
       </c>
       <c r="K31" s="5">
@@ -3647,7 +3647,7 @@
         <v>10.95</v>
       </c>
       <c r="M31" s="4">
-        <f>AVERAGE(K31,L31)</f>
+        <f t="shared" si="2"/>
         <v>10.984999999999999</v>
       </c>
       <c r="N31" s="5">
@@ -3657,7 +3657,7 @@
         <v>11.22</v>
       </c>
       <c r="P31" s="4">
-        <f>AVERAGE(N31,O31)</f>
+        <f t="shared" si="3"/>
         <v>11.234999999999999</v>
       </c>
       <c r="Q31" s="5">
@@ -3667,7 +3667,7 @@
         <v>11.18</v>
       </c>
       <c r="S31" s="4">
-        <f>AVERAGE(Q31,R31)</f>
+        <f t="shared" si="4"/>
         <v>11.24</v>
       </c>
       <c r="T31" s="5">
@@ -3677,7 +3677,7 @@
         <v>11.19</v>
       </c>
       <c r="V31" s="4">
-        <f>AVERAGE(T31,U31)</f>
+        <f t="shared" si="5"/>
         <v>11.465</v>
       </c>
       <c r="W31" s="5">
@@ -3687,13 +3687,13 @@
         <v>11.9</v>
       </c>
       <c r="Y31" s="4">
-        <f>AVERAGE(W31,X31)</f>
+        <f t="shared" si="6"/>
         <v>12.15</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B32" s="4">
         <v>15.97</v>
@@ -3702,7 +3702,7 @@
         <v>16.23</v>
       </c>
       <c r="D32" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>16.100000000000001</v>
       </c>
       <c r="E32" s="4">
@@ -3712,7 +3712,7 @@
         <v>16.3</v>
       </c>
       <c r="G32" s="4">
-        <f>AVERAGE(E32,F32)</f>
+        <f t="shared" si="0"/>
         <v>17.085000000000001</v>
       </c>
       <c r="H32" s="4">
@@ -3722,7 +3722,7 @@
         <v>17.989999999999998</v>
       </c>
       <c r="J32" s="4">
-        <f>AVERAGE(H32,I32)</f>
+        <f t="shared" si="1"/>
         <v>17.715</v>
       </c>
       <c r="K32" s="4">
@@ -3732,7 +3732,7 @@
         <v>17.649999999999999</v>
       </c>
       <c r="M32" s="4">
-        <f>AVERAGE(K32,L32)</f>
+        <f t="shared" si="2"/>
         <v>17.670000000000002</v>
       </c>
       <c r="N32" s="4">
@@ -3742,7 +3742,7 @@
         <v>17.850000000000001</v>
       </c>
       <c r="P32" s="4">
-        <f>AVERAGE(N32,O32)</f>
+        <f t="shared" si="3"/>
         <v>17.984999999999999</v>
       </c>
       <c r="Q32" s="4">
@@ -3752,7 +3752,7 @@
         <v>18.29</v>
       </c>
       <c r="S32" s="4">
-        <f>AVERAGE(Q32,R32)</f>
+        <f t="shared" si="4"/>
         <v>18.369999999999997</v>
       </c>
       <c r="T32" s="4">
@@ -3762,7 +3762,7 @@
         <v>19.260000000000002</v>
       </c>
       <c r="V32" s="4">
-        <f>AVERAGE(T32,U32)</f>
+        <f t="shared" si="5"/>
         <v>19.22</v>
       </c>
       <c r="W32" s="4">
@@ -3772,13 +3772,13 @@
         <v>19.36</v>
       </c>
       <c r="Y32" s="4">
-        <f>AVERAGE(W32,X32)</f>
+        <f t="shared" si="6"/>
         <v>19.435000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33" s="5">
         <v>6.23</v>
@@ -3787,7 +3787,7 @@
         <v>6.37</v>
       </c>
       <c r="D33" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>6.3000000000000007</v>
       </c>
       <c r="E33" s="5">
@@ -3797,7 +3797,7 @@
         <v>6.38</v>
       </c>
       <c r="G33" s="4">
-        <f>AVERAGE(E33,F33)</f>
+        <f t="shared" si="0"/>
         <v>6.6349999999999998</v>
       </c>
       <c r="H33" s="5">
@@ -3807,7 +3807,7 @@
         <v>6.97</v>
       </c>
       <c r="J33" s="4">
-        <f>AVERAGE(H33,I33)</f>
+        <f t="shared" si="1"/>
         <v>6.875</v>
       </c>
       <c r="K33" s="5">
@@ -3817,7 +3817,7 @@
         <v>6.91</v>
       </c>
       <c r="M33" s="4">
-        <f>AVERAGE(K33,L33)</f>
+        <f t="shared" si="2"/>
         <v>6.84</v>
       </c>
       <c r="N33" s="5">
@@ -3827,7 +3827,7 @@
         <v>6.62</v>
       </c>
       <c r="P33" s="4">
-        <f>AVERAGE(N33,O33)</f>
+        <f t="shared" si="3"/>
         <v>6.63</v>
       </c>
       <c r="Q33" s="5">
@@ -3837,7 +3837,7 @@
         <v>6.44</v>
       </c>
       <c r="S33" s="4">
-        <f>AVERAGE(Q33,R33)</f>
+        <f t="shared" si="4"/>
         <v>6.3949999999999996</v>
       </c>
       <c r="T33" s="5">
@@ -3847,7 +3847,7 @@
         <v>6.41</v>
       </c>
       <c r="V33" s="4">
-        <f>AVERAGE(T33,U33)</f>
+        <f t="shared" si="5"/>
         <v>6.37</v>
       </c>
       <c r="W33" s="5">
@@ -3857,13 +3857,13 @@
         <v>6.22</v>
       </c>
       <c r="Y33" s="4">
-        <f>AVERAGE(W33,X33)</f>
+        <f t="shared" si="6"/>
         <v>6.5299999999999994</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34" s="4">
         <v>21.33</v>
@@ -3872,7 +3872,7 @@
         <v>21.43</v>
       </c>
       <c r="D34" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>21.38</v>
       </c>
       <c r="E34" s="4">
@@ -3882,7 +3882,7 @@
         <v>21.82</v>
       </c>
       <c r="G34" s="4">
-        <f>AVERAGE(E34,F34)</f>
+        <f t="shared" si="0"/>
         <v>21.83</v>
       </c>
       <c r="H34" s="4">
@@ -3892,7 +3892,7 @@
         <v>21.7</v>
       </c>
       <c r="J34" s="4">
-        <f>AVERAGE(H34,I34)</f>
+        <f t="shared" si="1"/>
         <v>21.535</v>
       </c>
       <c r="K34" s="4">
@@ -3902,7 +3902,7 @@
         <v>21.51</v>
       </c>
       <c r="M34" s="4">
-        <f>AVERAGE(K34,L34)</f>
+        <f t="shared" si="2"/>
         <v>21.840000000000003</v>
       </c>
       <c r="N34" s="4">
@@ -3912,7 +3912,7 @@
         <v>22.66</v>
       </c>
       <c r="P34" s="4">
-        <f>AVERAGE(N34,O34)</f>
+        <f t="shared" si="3"/>
         <v>22.835000000000001</v>
       </c>
       <c r="Q34" s="4">
@@ -3922,7 +3922,7 @@
         <v>23.12</v>
       </c>
       <c r="S34" s="4">
-        <f>AVERAGE(Q34,R34)</f>
+        <f t="shared" si="4"/>
         <v>24.11</v>
       </c>
       <c r="T34" s="4">
@@ -3932,7 +3932,7 @@
         <v>24.88</v>
       </c>
       <c r="V34" s="4">
-        <f>AVERAGE(T34,U34)</f>
+        <f t="shared" si="5"/>
         <v>25.155000000000001</v>
       </c>
       <c r="W34" s="4">
@@ -3942,13 +3942,13 @@
         <v>25.73</v>
       </c>
       <c r="Y34" s="4">
-        <f>AVERAGE(W34,X34)</f>
+        <f t="shared" si="6"/>
         <v>25.774999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35" s="5">
         <v>26.56</v>
@@ -3957,7 +3957,7 @@
         <v>26.8</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>26.68</v>
       </c>
       <c r="E35" s="5">
@@ -3967,7 +3967,7 @@
         <v>27.38</v>
       </c>
       <c r="G35" s="4">
-        <f>AVERAGE(E35,F35)</f>
+        <f t="shared" si="0"/>
         <v>27.119999999999997</v>
       </c>
       <c r="H35" s="5">
@@ -3977,7 +3977,7 @@
         <v>26.8</v>
       </c>
       <c r="J35" s="4">
-        <f>AVERAGE(H35,I35)</f>
+        <f t="shared" si="1"/>
         <v>26.72</v>
       </c>
       <c r="K35" s="5">
@@ -3987,7 +3987,7 @@
         <v>26.55</v>
       </c>
       <c r="M35" s="4">
-        <f>AVERAGE(K35,L35)</f>
+        <f t="shared" si="2"/>
         <v>27.04</v>
       </c>
       <c r="N35" s="5">
@@ -3997,7 +3997,7 @@
         <v>27.43</v>
       </c>
       <c r="P35" s="4">
-        <f>AVERAGE(N35,O35)</f>
+        <f t="shared" si="3"/>
         <v>27.585000000000001</v>
       </c>
       <c r="Q35" s="5">
@@ -4007,7 +4007,7 @@
         <v>27.76</v>
       </c>
       <c r="S35" s="4">
-        <f>AVERAGE(Q35,R35)</f>
+        <f t="shared" si="4"/>
         <v>27.69</v>
       </c>
       <c r="T35" s="5">
@@ -4017,7 +4017,7 @@
         <v>28.4</v>
       </c>
       <c r="V35" s="4">
-        <f>AVERAGE(T35,U35)</f>
+        <f t="shared" si="5"/>
         <v>28.47</v>
       </c>
       <c r="W35" s="5">
@@ -4027,7 +4027,7 @@
         <v>28.4</v>
       </c>
       <c r="Y35" s="4">
-        <f>AVERAGE(W35,X35)</f>
+        <f t="shared" si="6"/>
         <v>28.285</v>
       </c>
     </row>
